--- a/data/trans_orig/Q5408-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5408-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB79D84B-6E38-40DF-A7C8-79D9B358B542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BB9FE6C-A26F-45A4-AB10-E157BF1AFF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FAA66604-F049-40BA-8F2C-0E3FF74FCA43}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6A32F053-3C54-41BB-BDBE-66681676EDFB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="340">
   <si>
     <t>Población según si es capaz de usar el bater en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -80,973 +80,985 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,36%</t>
+    <t>1,51%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
   </si>
   <si>
     <t>0,65%</t>
   </si>
   <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>Con alguna ayuda</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el bater en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el bater en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el bater en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>Con alguna ayuda</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el bater en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el bater en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el bater en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
   </si>
   <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>1,16%</t>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
   </si>
   <si>
     <t>99,86%</t>
   </si>
   <si>
-    <t>99,14%</t>
+    <t>99,2%</t>
   </si>
   <si>
     <t>99,45%</t>
   </si>
   <si>
+    <t>96,33%</t>
+  </si>
+  <si>
     <t>99,69%</t>
   </si>
   <si>
-    <t>98,74%</t>
+    <t>98,67%</t>
   </si>
   <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
   </si>
   <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
   </si>
   <si>
     <t>6,17%</t>
   </si>
   <si>
-    <t>7,73%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
   </si>
   <si>
     <t>4,9%</t>
   </si>
   <si>
-    <t>5,86%</t>
+    <t>5,93%</t>
   </si>
   <si>
     <t>96,14%</t>
   </si>
   <si>
-    <t>97,24%</t>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
   </si>
   <si>
     <t>92,07%</t>
   </si>
   <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
     <t>93,72%</t>
   </si>
   <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
   </si>
 </sst>
 </file>
@@ -1458,7 +1470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07893F1-D653-4211-AACF-5921C899E369}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2481C5C-C46A-4E41-BFD8-7F2F5E6FB5B1}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1696,7 +1708,7 @@
         <v>542</v>
       </c>
       <c r="I6" s="7">
-        <v>552397</v>
+        <v>552396</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1717,10 +1729,10 @@
         <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1735,28 +1747,28 @@
         <v>373189</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>574</v>
       </c>
       <c r="I7" s="7">
-        <v>587750</v>
+        <v>587749</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>973</v>
@@ -1765,18 +1777,18 @@
         <v>960938</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1791,10 +1803,10 @@
         <v>12</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -1803,13 +1815,13 @@
         <v>1141</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -1818,13 +1830,13 @@
         <v>1141</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1839,13 +1851,13 @@
         <v>810</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -1854,7 +1866,7 @@
         <v>914</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
@@ -1941,13 +1953,13 @@
         <v>88083</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>60</v>
@@ -1956,13 +1968,13 @@
         <v>62212</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>149</v>
@@ -1971,13 +1983,13 @@
         <v>150295</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1997,7 +2009,7 @@
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>62</v>
@@ -2012,7 +2024,7 @@
         <v>12</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>63</v>
@@ -2027,7 +2039,7 @@
         <v>12</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>64</v>
@@ -2048,7 +2060,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>62</v>
@@ -2063,7 +2075,7 @@
         <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>63</v>
@@ -2078,7 +2090,7 @@
         <v>12</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>64</v>
@@ -2102,7 +2114,7 @@
         <v>65</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
@@ -2117,7 +2129,7 @@
         <v>66</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M14" s="7">
         <v>62</v>
@@ -2132,7 +2144,7 @@
         <v>67</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2147,13 +2159,13 @@
         <v>41194</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>27</v>
@@ -2162,13 +2174,13 @@
         <v>26881</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>62</v>
@@ -2177,13 +2189,13 @@
         <v>68075</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2272,7 +2284,7 @@
         <v>80</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="M17" s="7">
         <v>47</v>
@@ -2281,13 +2293,13 @@
         <v>49165</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2302,13 +2314,13 @@
         <v>483356</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H18" s="7">
         <v>627</v>
@@ -2317,13 +2329,13 @@
         <v>639434</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M18" s="7">
         <v>1129</v>
@@ -2332,13 +2344,13 @@
         <v>1122790</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2353,13 +2365,13 @@
         <v>502466</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>661</v>
@@ -2368,13 +2380,13 @@
         <v>676842</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>1184</v>
@@ -2383,18 +2395,18 @@
         <v>1179308</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2413,7 +2425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0FF6DF-82A4-4293-AF44-65DA53DC7814}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7866834F-5B96-4243-A4F9-BC1805A4962B}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2430,7 +2442,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2537,10 +2549,10 @@
         <v>9477</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>97</v>
@@ -2621,10 +2633,10 @@
         <v>110</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2639,13 +2651,13 @@
         <v>381825</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="H6" s="7">
         <v>544</v>
@@ -2654,13 +2666,13 @@
         <v>576699</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M6" s="7">
         <v>893</v>
@@ -2669,13 +2681,13 @@
         <v>958523</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,13 +2702,13 @@
         <v>414398</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>596</v>
@@ -2705,13 +2717,13 @@
         <v>634545</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>974</v>
@@ -2720,18 +2732,18 @@
         <v>1048942</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2749,7 +2761,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2758,13 +2770,13 @@
         <v>1328</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -2779,7 +2791,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2794,13 +2806,13 @@
         <v>2141</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -2809,13 +2821,13 @@
         <v>2082</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -2824,13 +2836,13 @@
         <v>4223</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>130</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2845,13 +2857,13 @@
         <v>115531</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H10" s="7">
         <v>74</v>
@@ -2860,13 +2872,13 @@
         <v>79664</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M10" s="7">
         <v>176</v>
@@ -2875,13 +2887,13 @@
         <v>195195</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2896,13 +2908,13 @@
         <v>118665</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>77</v>
@@ -2911,13 +2923,13 @@
         <v>83074</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>182</v>
@@ -2926,13 +2938,13 @@
         <v>201739</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,10 +2964,10 @@
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2967,10 +2979,10 @@
         <v>12</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2982,10 +2994,10 @@
         <v>12</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,13 +3012,13 @@
         <v>986</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3021,7 +3033,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -3030,13 +3042,13 @@
         <v>2085</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3051,10 +3063,10 @@
         <v>25589</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>55</v>
@@ -3066,10 +3078,10 @@
         <v>21146</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>55</v>
@@ -3081,10 +3093,10 @@
         <v>46736</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>55</v>
@@ -3102,13 +3114,13 @@
         <v>26575</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>18</v>
@@ -3117,13 +3129,13 @@
         <v>22246</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>39</v>
@@ -3132,13 +3144,13 @@
         <v>48821</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,13 +3167,13 @@
         <v>10470</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -3170,13 +3182,13 @@
         <v>18298</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -3185,13 +3197,13 @@
         <v>28768</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3209,10 +3221,10 @@
         <v>79</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -3221,13 +3233,13 @@
         <v>44058</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
@@ -3239,10 +3251,10 @@
         <v>165</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,13 +3269,13 @@
         <v>522945</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H18" s="7">
         <v>635</v>
@@ -3272,13 +3284,13 @@
         <v>677509</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M18" s="7">
         <v>1106</v>
@@ -3287,13 +3299,13 @@
         <v>1200454</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,13 +3320,13 @@
         <v>559637</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>691</v>
@@ -3323,13 +3335,13 @@
         <v>739865</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>1195</v>
@@ -3338,18 +3350,18 @@
         <v>1299502</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3368,7 +3380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE24B47-C859-4E83-86C7-3CEFBDE6E8A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9B54F7-AA40-48F8-8149-904C874A4AAE}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3385,7 +3397,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3492,13 +3504,13 @@
         <v>4584</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -3507,13 +3519,13 @@
         <v>13383</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -3522,13 +3534,13 @@
         <v>17967</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3543,7 +3555,7 @@
         <v>19822</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>185</v>
@@ -3561,10 +3573,10 @@
         <v>165</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>25</v>
+        <v>187</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M5" s="7">
         <v>47</v>
@@ -3573,13 +3585,13 @@
         <v>49848</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,16 +3603,16 @@
         <v>358</v>
       </c>
       <c r="D6" s="7">
-        <v>329495</v>
+        <v>329494</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H6" s="7">
         <v>437</v>
@@ -3609,13 +3621,13 @@
         <v>511348</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M6" s="7">
         <v>795</v>
@@ -3624,10 +3636,10 @@
         <v>840842</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>199</v>
@@ -3642,16 +3654,16 @@
         <v>386</v>
       </c>
       <c r="D7" s="7">
-        <v>353902</v>
+        <v>353901</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>471</v>
@@ -3660,13 +3672,13 @@
         <v>554757</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>857</v>
@@ -3675,18 +3687,18 @@
         <v>908658</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3698,7 +3710,7 @@
         <v>892</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
@@ -3716,7 +3728,7 @@
         <v>12</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>201</v>
@@ -3749,7 +3761,7 @@
         <v>2833</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>204</v>
@@ -3770,7 +3782,7 @@
         <v>207</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -3779,13 +3791,13 @@
         <v>6380</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>208</v>
+        <v>102</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>209</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>25</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,13 +3812,13 @@
         <v>188807</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H10" s="7">
         <v>154</v>
@@ -3815,13 +3827,13 @@
         <v>184527</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>215</v>
+        <v>60</v>
       </c>
       <c r="M10" s="7">
         <v>347</v>
@@ -3836,7 +3848,7 @@
         <v>216</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>217</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,13 +3863,13 @@
         <v>192532</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>157</v>
@@ -3866,13 +3878,13 @@
         <v>188074</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>354</v>
@@ -3881,13 +3893,13 @@
         <v>380606</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,10 +3919,10 @@
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3922,10 +3934,10 @@
         <v>12</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3937,10 +3949,10 @@
         <v>12</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,13 +3967,13 @@
         <v>868</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3970,13 +3982,13 @@
         <v>1376</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -3985,13 +3997,13 @@
         <v>2244</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,10 +4018,10 @@
         <v>41161</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>55</v>
@@ -4021,10 +4033,10 @@
         <v>32298</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>55</v>
@@ -4036,10 +4048,10 @@
         <v>73459</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>55</v>
@@ -4057,13 +4069,13 @@
         <v>42029</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>26</v>
@@ -4072,13 +4084,13 @@
         <v>33674</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>67</v>
@@ -4087,13 +4099,13 @@
         <v>75703</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,13 +4122,13 @@
         <v>5477</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -4125,13 +4137,13 @@
         <v>13383</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -4140,13 +4152,13 @@
         <v>18860</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>75</v>
+        <v>238</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>239</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4197,7 +4209,7 @@
         <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,13 +4224,13 @@
         <v>559463</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H18" s="7">
         <v>616</v>
@@ -4227,13 +4239,13 @@
         <v>728173</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M18" s="7">
         <v>1207</v>
@@ -4242,13 +4254,13 @@
         <v>1287636</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>132</v>
+        <v>256</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,13 +4275,13 @@
         <v>588463</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>654</v>
@@ -4278,13 +4290,13 @@
         <v>776505</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>1278</v>
@@ -4293,18 +4305,18 @@
         <v>1364968</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -4323,7 +4335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F770F708-54E1-41EB-9511-22913A51D388}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A00C67A-4400-4FE2-B079-8030CC68CE8F}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4340,7 +4352,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4447,13 +4459,13 @@
         <v>3441</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>203</v>
+        <v>259</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H4" s="7">
         <v>29</v>
@@ -4462,13 +4474,13 @@
         <v>16140</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M4" s="7">
         <v>35</v>
@@ -4477,13 +4489,13 @@
         <v>19582</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,13 +4510,13 @@
         <v>13554</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="H5" s="7">
         <v>94</v>
@@ -4513,13 +4525,13 @@
         <v>52102</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M5" s="7">
         <v>117</v>
@@ -4528,13 +4540,13 @@
         <v>65656</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>111</v>
+        <v>271</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>270</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4549,13 +4561,13 @@
         <v>270476</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H6" s="7">
         <v>895</v>
@@ -4564,13 +4576,13 @@
         <v>486651</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M6" s="7">
         <v>1294</v>
@@ -4579,13 +4591,13 @@
         <v>757126</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4600,13 +4612,13 @@
         <v>287472</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>1018</v>
@@ -4615,13 +4627,13 @@
         <v>554893</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>1446</v>
@@ -4630,18 +4642,18 @@
         <v>842364</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4653,13 +4665,13 @@
         <v>2101</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -4671,10 +4683,10 @@
         <v>204</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -4683,13 +4695,13 @@
         <v>3923</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>287</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>286</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,13 +4716,13 @@
         <v>7536</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H9" s="7">
         <v>18</v>
@@ -4719,13 +4731,13 @@
         <v>10383</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M9" s="7">
         <v>29</v>
@@ -4734,10 +4746,10 @@
         <v>17919</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>294</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>295</v>
@@ -4758,10 +4770,10 @@
         <v>296</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>87</v>
+        <v>297</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H10" s="7">
         <v>507</v>
@@ -4770,13 +4782,13 @@
         <v>374217</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>300</v>
+        <v>137</v>
       </c>
       <c r="M10" s="7">
         <v>919</v>
@@ -4806,13 +4818,13 @@
         <v>294566</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>529</v>
@@ -4821,13 +4833,13 @@
         <v>386422</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>955</v>
@@ -4836,13 +4848,13 @@
         <v>680988</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,7 +4889,7 @@
         <v>12</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>306</v>
@@ -4895,7 +4907,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>257</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,10 +4925,10 @@
         <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4925,13 +4937,13 @@
         <v>427</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>225</v>
+        <v>311</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -4940,13 +4952,13 @@
         <v>427</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>18</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,10 +4973,10 @@
         <v>111827</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>55</v>
@@ -4976,10 +4988,10 @@
         <v>77818</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>231</v>
+        <v>316</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>55</v>
@@ -4991,10 +5003,10 @@
         <v>189645</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>55</v>
@@ -5012,13 +5024,13 @@
         <v>111986</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>152</v>
@@ -5027,13 +5039,13 @@
         <v>78245</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>320</v>
@@ -5042,13 +5054,13 @@
         <v>190231</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,13 +5077,13 @@
         <v>5702</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="H16" s="7">
         <v>33</v>
@@ -5080,13 +5092,13 @@
         <v>17962</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="M16" s="7">
         <v>43</v>
@@ -5095,13 +5107,13 @@
         <v>23664</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>75</v>
+        <v>238</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>152</v>
+        <v>325</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,10 +5131,10 @@
         <v>64</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>323</v>
+        <v>82</v>
       </c>
       <c r="H17" s="7">
         <v>113</v>
@@ -5131,13 +5143,13 @@
         <v>62912</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>329</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="M17" s="7">
         <v>147</v>
@@ -5146,13 +5158,13 @@
         <v>84003</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>295</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5167,13 +5179,13 @@
         <v>667232</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>214</v>
+        <v>334</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="H18" s="7">
         <v>1553</v>
@@ -5182,13 +5194,13 @@
         <v>938686</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>331</v>
+        <v>193</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>332</v>
+        <v>255</v>
       </c>
       <c r="M18" s="7">
         <v>2531</v>
@@ -5197,13 +5209,13 @@
         <v>1605918</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5218,13 +5230,13 @@
         <v>694024</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>1699</v>
@@ -5233,13 +5245,13 @@
         <v>1019560</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>2721</v>
@@ -5248,18 +5260,18 @@
         <v>1713584</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5408-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5408-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BB9FE6C-A26F-45A4-AB10-E157BF1AFF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DB4EC28-62C0-43AD-9637-348860B06CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6A32F053-3C54-41BB-BDBE-66681676EDFB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CBC61D46-E320-43CC-BE6F-BD8EB291B904}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="330">
   <si>
     <t>Población según si es capaz de usar el bater en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -80,976 +80,946 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,51%</t>
+    <t>1,54%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>0,19%</t>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>Con alguna ayuda</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el bater en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el bater en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
   </si>
   <si>
     <t>1,98%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>Con alguna ayuda</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el bater en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
   </si>
   <si>
     <t>7,39%</t>
   </si>
   <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
   </si>
   <si>
     <t>6,53%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el bater en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el bater en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
   </si>
   <si>
     <t>90,21%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el bater en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
   </si>
   <si>
     <t>93,72%</t>
@@ -1470,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2481C5C-C46A-4E41-BFD8-7F2F5E6FB5B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B155A492-79B8-4120-93F1-E2A070C4BF6D}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1708,7 +1678,7 @@
         <v>542</v>
       </c>
       <c r="I6" s="7">
-        <v>552396</v>
+        <v>552397</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1759,7 +1729,7 @@
         <v>574</v>
       </c>
       <c r="I7" s="7">
-        <v>587749</v>
+        <v>587750</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1866,13 +1836,13 @@
         <v>914</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -1881,13 +1851,13 @@
         <v>1723</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1902,13 +1872,13 @@
         <v>87273</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H10" s="7">
         <v>58</v>
@@ -1917,13 +1887,13 @@
         <v>60157</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>146</v>
@@ -1932,13 +1902,13 @@
         <v>147431</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1994,7 +1964,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2012,7 +1982,7 @@
         <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2027,7 +1997,7 @@
         <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2042,7 +2012,7 @@
         <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2063,7 +2033,7 @@
         <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2078,7 +2048,7 @@
         <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2093,7 +2063,7 @@
         <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2108,10 +2078,10 @@
         <v>41194</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>40</v>
@@ -2123,10 +2093,10 @@
         <v>26881</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>40</v>
@@ -2138,10 +2108,10 @@
         <v>68075</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>40</v>
@@ -2212,13 +2182,13 @@
         <v>1669</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -2227,13 +2197,13 @@
         <v>5683</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -2242,13 +2212,13 @@
         <v>7352</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2263,13 +2233,13 @@
         <v>17441</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -2278,13 +2248,13 @@
         <v>31725</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M17" s="7">
         <v>47</v>
@@ -2293,13 +2263,13 @@
         <v>49165</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2314,13 +2284,13 @@
         <v>483356</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H18" s="7">
         <v>627</v>
@@ -2329,13 +2299,13 @@
         <v>639434</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M18" s="7">
         <v>1129</v>
@@ -2344,13 +2314,13 @@
         <v>1122790</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2406,7 +2376,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2425,7 +2395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7866834F-5B96-4243-A4F9-BC1805A4962B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184B4936-6447-461E-9AAB-090A3D5C48BB}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2442,7 +2412,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2549,13 +2519,13 @@
         <v>9477</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -2564,13 +2534,13 @@
         <v>16970</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -2579,13 +2549,13 @@
         <v>26447</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,13 +2570,13 @@
         <v>23096</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H5" s="7">
         <v>37</v>
@@ -2615,7 +2585,7 @@
         <v>40876</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>108</v>
@@ -2633,10 +2603,10 @@
         <v>110</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2651,13 +2621,13 @@
         <v>381825</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H6" s="7">
         <v>544</v>
@@ -2666,13 +2636,13 @@
         <v>576699</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M6" s="7">
         <v>893</v>
@@ -2681,13 +2651,13 @@
         <v>958523</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2755,13 +2725,13 @@
         <v>992</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2770,13 +2740,13 @@
         <v>1328</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -2785,13 +2755,13 @@
         <v>2320</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2806,13 +2776,13 @@
         <v>2141</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -2821,13 +2791,13 @@
         <v>2082</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -2836,13 +2806,13 @@
         <v>4223</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2857,13 +2827,13 @@
         <v>115531</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H10" s="7">
         <v>74</v>
@@ -2872,13 +2842,13 @@
         <v>79664</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M10" s="7">
         <v>176</v>
@@ -2887,13 +2857,13 @@
         <v>195195</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2949,7 +2919,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2967,7 +2937,7 @@
         <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2982,7 +2952,7 @@
         <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2997,7 +2967,7 @@
         <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3012,13 +2982,13 @@
         <v>986</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3033,7 +3003,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -3042,13 +3012,13 @@
         <v>2085</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,13 +3033,13 @@
         <v>25589</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
@@ -3078,13 +3048,13 @@
         <v>21146</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M14" s="7">
         <v>37</v>
@@ -3093,13 +3063,13 @@
         <v>46736</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3167,7 +3137,7 @@
         <v>10470</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>48</v>
@@ -3182,13 +3152,13 @@
         <v>18298</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -3197,13 +3167,13 @@
         <v>28768</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,13 +3188,13 @@
         <v>26223</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -3233,13 +3203,13 @@
         <v>44058</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
@@ -3248,13 +3218,13 @@
         <v>70280</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,13 +3239,13 @@
         <v>522945</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H18" s="7">
         <v>635</v>
@@ -3284,13 +3254,13 @@
         <v>677509</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>171</v>
-      </c>
       <c r="L18" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M18" s="7">
         <v>1106</v>
@@ -3299,13 +3269,13 @@
         <v>1200454</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3361,7 +3331,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3380,7 +3350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9B54F7-AA40-48F8-8149-904C874A4AAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B37C5EDC-35E2-43E3-9A40-8923B9C34816}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3397,7 +3367,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3504,13 +3474,13 @@
         <v>4584</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -3519,13 +3489,13 @@
         <v>13383</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -3534,13 +3504,13 @@
         <v>17967</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>181</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3555,13 +3525,13 @@
         <v>19822</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
@@ -3570,13 +3540,13 @@
         <v>30026</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M5" s="7">
         <v>47</v>
@@ -3585,13 +3555,13 @@
         <v>49848</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>190</v>
+        <v>47</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,16 +3573,16 @@
         <v>358</v>
       </c>
       <c r="D6" s="7">
-        <v>329494</v>
+        <v>329495</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H6" s="7">
         <v>437</v>
@@ -3621,13 +3591,13 @@
         <v>511348</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>197</v>
+        <v>60</v>
       </c>
       <c r="M6" s="7">
         <v>795</v>
@@ -3636,13 +3606,13 @@
         <v>840842</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,7 +3624,7 @@
         <v>386</v>
       </c>
       <c r="D7" s="7">
-        <v>353901</v>
+        <v>353902</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -3710,13 +3680,13 @@
         <v>892</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3731,7 +3701,7 @@
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3740,13 +3710,13 @@
         <v>892</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3761,13 +3731,13 @@
         <v>2833</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -3776,13 +3746,13 @@
         <v>3547</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -3791,13 +3761,13 @@
         <v>6380</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>102</v>
+        <v>206</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>210</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,13 +3782,13 @@
         <v>188807</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H10" s="7">
         <v>154</v>
@@ -3827,13 +3797,13 @@
         <v>184527</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>347</v>
@@ -3842,13 +3812,13 @@
         <v>373334</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>134</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,7 +3874,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3922,7 +3892,7 @@
         <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3937,7 +3907,7 @@
         <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3952,7 +3922,7 @@
         <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,13 +3937,13 @@
         <v>868</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3982,13 +3952,13 @@
         <v>1376</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -3997,13 +3967,13 @@
         <v>2244</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,13 +3988,13 @@
         <v>41161</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -4033,13 +4003,13 @@
         <v>32298</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M14" s="7">
         <v>65</v>
@@ -4048,13 +4018,13 @@
         <v>73459</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4122,13 +4092,13 @@
         <v>5477</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -4137,13 +4107,13 @@
         <v>13383</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -4152,13 +4122,13 @@
         <v>18860</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4173,13 +4143,13 @@
         <v>23524</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -4188,13 +4158,13 @@
         <v>34948</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>29</v>
       </c>
       <c r="M17" s="7">
         <v>55</v>
@@ -4203,13 +4173,13 @@
         <v>58472</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4224,13 +4194,13 @@
         <v>559463</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H18" s="7">
         <v>616</v>
@@ -4239,13 +4209,13 @@
         <v>728173</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>252</v>
+        <v>93</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M18" s="7">
         <v>1207</v>
@@ -4254,13 +4224,13 @@
         <v>1287636</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>257</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,7 +4286,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4335,7 +4305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A00C67A-4400-4FE2-B079-8030CC68CE8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A089EE1-2D4E-4A7D-BC5E-C6D8A03B64A1}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4352,7 +4322,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4459,13 +4429,13 @@
         <v>3441</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="H4" s="7">
         <v>29</v>
@@ -4474,13 +4444,13 @@
         <v>16140</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>263</v>
+        <v>53</v>
       </c>
       <c r="M4" s="7">
         <v>35</v>
@@ -4489,13 +4459,13 @@
         <v>19582</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4510,13 +4480,13 @@
         <v>13554</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>26</v>
+        <v>263</v>
       </c>
       <c r="H5" s="7">
         <v>94</v>
@@ -4525,13 +4495,13 @@
         <v>52102</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M5" s="7">
         <v>117</v>
@@ -4540,13 +4510,13 @@
         <v>65656</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>81</v>
+        <v>268</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4561,13 +4531,13 @@
         <v>270476</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H6" s="7">
         <v>895</v>
@@ -4576,13 +4546,13 @@
         <v>486651</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M6" s="7">
         <v>1294</v>
@@ -4591,13 +4561,13 @@
         <v>757126</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4665,13 +4635,13 @@
         <v>2101</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -4680,13 +4650,13 @@
         <v>1822</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -4695,13 +4665,13 @@
         <v>3923</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>287</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4716,13 +4686,13 @@
         <v>7536</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H9" s="7">
         <v>18</v>
@@ -4731,13 +4701,13 @@
         <v>10383</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M9" s="7">
         <v>29</v>
@@ -4746,13 +4716,13 @@
         <v>17919</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4767,13 +4737,13 @@
         <v>284929</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H10" s="7">
         <v>507</v>
@@ -4782,13 +4752,13 @@
         <v>374217</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M10" s="7">
         <v>919</v>
@@ -4797,13 +4767,13 @@
         <v>659146</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,7 +4829,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4871,13 +4841,13 @@
         <v>159</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>305</v>
+        <v>237</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4892,7 +4862,7 @@
         <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>306</v>
+        <v>179</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -4901,13 +4871,13 @@
         <v>159</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,7 +4898,7 @@
         <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>309</v>
+        <v>182</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4937,13 +4907,13 @@
         <v>427</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>310</v>
+        <v>204</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -4952,13 +4922,13 @@
         <v>427</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>18</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4973,13 +4943,13 @@
         <v>111827</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H14" s="7">
         <v>151</v>
@@ -4988,13 +4958,13 @@
         <v>77818</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>315</v>
+        <v>61</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M14" s="7">
         <v>318</v>
@@ -5003,13 +4973,13 @@
         <v>189645</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,13 +5047,13 @@
         <v>5702</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="H16" s="7">
         <v>33</v>
@@ -5092,13 +5062,13 @@
         <v>17962</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="M16" s="7">
         <v>43</v>
@@ -5107,13 +5077,13 @@
         <v>23664</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>326</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5128,13 +5098,13 @@
         <v>21091</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>327</v>
+        <v>232</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>113</v>
@@ -5143,13 +5113,13 @@
         <v>62912</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="M17" s="7">
         <v>147</v>
@@ -5158,13 +5128,13 @@
         <v>84003</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5179,13 +5149,13 @@
         <v>667232</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="H18" s="7">
         <v>1553</v>
@@ -5194,13 +5164,13 @@
         <v>938686</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>193</v>
+        <v>326</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M18" s="7">
         <v>2531</v>
@@ -5209,13 +5179,13 @@
         <v>1605918</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,7 +5241,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5408-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5408-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DB4EC28-62C0-43AD-9637-348860B06CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CA54126-315F-4E8E-9042-492B0A133452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CBC61D46-E320-43CC-BE6F-BD8EB291B904}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5CC36D33-0B50-4757-A60E-451F3D297824}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="336">
   <si>
     <t>Población según si es capaz de usar el bater en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -80,955 +80,973 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>Con alguna ayuda</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el bater en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
     <t>1,54%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>Con alguna ayuda</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el bater en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
   </si>
   <si>
     <t>7,45%</t>
   </si>
   <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar el bater en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
   </si>
   <si>
     <t>99,45%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
   </si>
   <si>
     <t>1,94%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el bater en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el bater en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar el bater en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
   </si>
   <si>
     <t>6,17%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
+    <t>7,73%</t>
   </si>
   <si>
     <t>4,9%</t>
   </si>
   <si>
-    <t>5,93%</t>
+    <t>5,86%</t>
   </si>
   <si>
     <t>96,14%</t>
   </si>
   <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
+    <t>97,24%</t>
   </si>
   <si>
     <t>92,07%</t>
   </si>
   <si>
-    <t>90,21%</t>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
   </si>
   <si>
     <t>93,72%</t>
   </si>
   <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
   </si>
 </sst>
 </file>
@@ -1440,7 +1458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B155A492-79B8-4120-93F1-E2A070C4BF6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89754488-8A6F-4048-AB09-E2D8837CB4E4}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1699,10 +1717,10 @@
         <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1717,13 +1735,13 @@
         <v>373189</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>574</v>
@@ -1732,13 +1750,13 @@
         <v>587750</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>973</v>
@@ -1747,18 +1765,18 @@
         <v>960938</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1773,10 +1791,10 @@
         <v>12</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -1785,13 +1803,13 @@
         <v>1141</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -1800,13 +1818,13 @@
         <v>1141</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1821,13 +1839,13 @@
         <v>810</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -1836,13 +1854,13 @@
         <v>914</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -1851,13 +1869,13 @@
         <v>1723</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1872,13 +1890,13 @@
         <v>87273</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="H10" s="7">
         <v>58</v>
@@ -1887,13 +1905,13 @@
         <v>60157</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>146</v>
@@ -1902,13 +1920,13 @@
         <v>147431</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1923,13 +1941,13 @@
         <v>88083</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>60</v>
@@ -1938,13 +1956,13 @@
         <v>62212</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>149</v>
@@ -1953,18 +1971,18 @@
         <v>150295</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1979,10 +1997,10 @@
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1994,10 +2012,10 @@
         <v>12</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2009,10 +2027,10 @@
         <v>12</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2030,10 +2048,10 @@
         <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2045,10 +2063,10 @@
         <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2060,10 +2078,10 @@
         <v>12</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2078,13 +2096,13 @@
         <v>41194</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
@@ -2093,13 +2111,13 @@
         <v>26881</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M14" s="7">
         <v>62</v>
@@ -2108,13 +2126,13 @@
         <v>68075</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2129,13 +2147,13 @@
         <v>41194</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>27</v>
@@ -2144,13 +2162,13 @@
         <v>26881</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>62</v>
@@ -2159,13 +2177,13 @@
         <v>68075</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2182,13 +2200,13 @@
         <v>1669</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -2197,13 +2215,13 @@
         <v>5683</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -2212,13 +2230,13 @@
         <v>7352</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2233,13 +2251,13 @@
         <v>17441</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -2248,13 +2266,13 @@
         <v>31725</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="M17" s="7">
         <v>47</v>
@@ -2263,13 +2281,13 @@
         <v>49165</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2284,13 +2302,13 @@
         <v>483356</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H18" s="7">
         <v>627</v>
@@ -2299,13 +2317,13 @@
         <v>639434</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M18" s="7">
         <v>1129</v>
@@ -2314,13 +2332,13 @@
         <v>1122790</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2335,13 +2353,13 @@
         <v>502466</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>661</v>
@@ -2350,13 +2368,13 @@
         <v>676842</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>1184</v>
@@ -2365,18 +2383,18 @@
         <v>1179308</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2395,7 +2413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184B4936-6447-461E-9AAB-090A3D5C48BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD31AE9-4AA4-4F1B-B0D5-DCA05573F03C}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2412,7 +2430,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2519,13 +2537,13 @@
         <v>9477</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -2534,13 +2552,13 @@
         <v>16970</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -2549,13 +2567,13 @@
         <v>26447</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2570,13 +2588,13 @@
         <v>23096</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H5" s="7">
         <v>37</v>
@@ -2585,7 +2603,7 @@
         <v>40876</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>108</v>
@@ -2603,7 +2621,7 @@
         <v>110</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>111</v>
@@ -2627,7 +2645,7 @@
         <v>113</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="H6" s="7">
         <v>544</v>
@@ -2636,13 +2654,13 @@
         <v>576699</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M6" s="7">
         <v>893</v>
@@ -2651,13 +2669,13 @@
         <v>958523</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,13 +2690,13 @@
         <v>414398</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>596</v>
@@ -2687,13 +2705,13 @@
         <v>634545</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>974</v>
@@ -2702,18 +2720,18 @@
         <v>1048942</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2725,13 +2743,13 @@
         <v>992</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2740,7 +2758,7 @@
         <v>1328</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
@@ -2755,13 +2773,13 @@
         <v>2320</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2776,13 +2794,13 @@
         <v>2141</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -2791,13 +2809,13 @@
         <v>2082</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -2806,13 +2824,13 @@
         <v>4223</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2827,13 +2845,13 @@
         <v>115531</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H10" s="7">
         <v>74</v>
@@ -2842,13 +2860,13 @@
         <v>79664</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M10" s="7">
         <v>176</v>
@@ -2857,10 +2875,10 @@
         <v>195195</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>138</v>
@@ -2878,13 +2896,13 @@
         <v>118665</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>77</v>
@@ -2893,13 +2911,13 @@
         <v>83074</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>182</v>
@@ -2908,18 +2926,18 @@
         <v>201739</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2934,7 +2952,7 @@
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>139</v>
@@ -2949,7 +2967,7 @@
         <v>12</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>140</v>
@@ -2964,10 +2982,10 @@
         <v>12</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>141</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,13 +3000,13 @@
         <v>986</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3003,7 +3021,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -3012,13 +3030,13 @@
         <v>2085</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,13 +3051,13 @@
         <v>25589</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
@@ -3048,13 +3066,13 @@
         <v>21146</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M14" s="7">
         <v>37</v>
@@ -3063,13 +3081,13 @@
         <v>46736</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3084,13 +3102,13 @@
         <v>26575</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>18</v>
@@ -3099,13 +3117,13 @@
         <v>22246</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>39</v>
@@ -3114,13 +3132,13 @@
         <v>48821</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,13 +3155,13 @@
         <v>10470</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -3170,10 +3188,10 @@
         <v>157</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,13 +3206,13 @@
         <v>26223</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -3203,13 +3221,13 @@
         <v>44058</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
@@ -3218,13 +3236,13 @@
         <v>70280</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,13 +3257,13 @@
         <v>522945</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H18" s="7">
         <v>635</v>
@@ -3254,13 +3272,13 @@
         <v>677509</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="M18" s="7">
         <v>1106</v>
@@ -3269,13 +3287,13 @@
         <v>1200454</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3290,13 +3308,13 @@
         <v>559637</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>691</v>
@@ -3305,13 +3323,13 @@
         <v>739865</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>1195</v>
@@ -3320,18 +3338,18 @@
         <v>1299502</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3350,7 +3368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B37C5EDC-35E2-43E3-9A40-8923B9C34816}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9045856-E323-4580-A44C-B9A71C0B4A2B}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3367,7 +3385,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3474,13 +3492,13 @@
         <v>4584</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -3489,13 +3507,13 @@
         <v>13383</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>179</v>
+        <v>51</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -3504,13 +3522,13 @@
         <v>17967</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,13 +3543,13 @@
         <v>19822</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
@@ -3540,13 +3558,13 @@
         <v>30026</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>185</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M5" s="7">
         <v>47</v>
@@ -3555,13 +3573,13 @@
         <v>49848</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>47</v>
+        <v>189</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,13 +3594,13 @@
         <v>329495</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H6" s="7">
         <v>437</v>
@@ -3591,13 +3609,13 @@
         <v>511348</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>60</v>
+        <v>196</v>
       </c>
       <c r="M6" s="7">
         <v>795</v>
@@ -3606,13 +3624,13 @@
         <v>840842</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,13 +3645,13 @@
         <v>353902</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>471</v>
@@ -3642,13 +3660,13 @@
         <v>554757</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>857</v>
@@ -3657,18 +3675,18 @@
         <v>908658</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3680,13 +3698,13 @@
         <v>892</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3698,10 +3716,10 @@
         <v>12</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3710,13 +3728,13 @@
         <v>892</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,13 +3749,13 @@
         <v>2833</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -3746,13 +3764,13 @@
         <v>3547</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>205</v>
+        <v>78</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -3761,13 +3779,13 @@
         <v>6380</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,13 +3800,13 @@
         <v>188807</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H10" s="7">
         <v>154</v>
@@ -3797,13 +3815,13 @@
         <v>184527</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>215</v>
       </c>
       <c r="M10" s="7">
         <v>347</v>
@@ -3812,13 +3830,13 @@
         <v>373334</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,13 +3851,13 @@
         <v>192532</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>157</v>
@@ -3848,13 +3866,13 @@
         <v>188074</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>354</v>
@@ -3863,18 +3881,18 @@
         <v>380606</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3889,10 +3907,10 @@
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3904,10 +3922,10 @@
         <v>12</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3919,10 +3937,10 @@
         <v>12</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,13 +3955,13 @@
         <v>868</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3952,13 +3970,13 @@
         <v>1376</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -3967,13 +3985,13 @@
         <v>2244</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,13 +4006,13 @@
         <v>41161</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -4003,13 +4021,13 @@
         <v>32298</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M14" s="7">
         <v>65</v>
@@ -4018,13 +4036,13 @@
         <v>73459</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4039,13 +4057,13 @@
         <v>42029</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>26</v>
@@ -4054,13 +4072,13 @@
         <v>33674</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>67</v>
@@ -4069,13 +4087,13 @@
         <v>75703</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,13 +4110,13 @@
         <v>5477</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -4107,13 +4125,13 @@
         <v>13383</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>235</v>
+        <v>180</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -4122,13 +4140,13 @@
         <v>18860</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>236</v>
+        <v>75</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,13 +4161,13 @@
         <v>23524</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>241</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -4158,13 +4176,13 @@
         <v>34948</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>29</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
         <v>55</v>
@@ -4173,13 +4191,13 @@
         <v>58472</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>245</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4194,13 +4212,13 @@
         <v>559463</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H18" s="7">
         <v>616</v>
@@ -4209,13 +4227,13 @@
         <v>728173</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>93</v>
+        <v>251</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M18" s="7">
         <v>1207</v>
@@ -4224,13 +4242,13 @@
         <v>1287636</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>252</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>168</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4245,13 +4263,13 @@
         <v>588463</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>654</v>
@@ -4260,13 +4278,13 @@
         <v>776505</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>1278</v>
@@ -4275,18 +4293,18 @@
         <v>1364968</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -4305,7 +4323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A089EE1-2D4E-4A7D-BC5E-C6D8A03B64A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DAF3D6C-67DE-4BA1-8E5F-62147DB57896}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4322,7 +4340,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4429,13 +4447,13 @@
         <v>3441</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>254</v>
+        <v>203</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H4" s="7">
         <v>29</v>
@@ -4444,13 +4462,13 @@
         <v>16140</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>53</v>
+        <v>261</v>
       </c>
       <c r="M4" s="7">
         <v>35</v>
@@ -4459,13 +4477,13 @@
         <v>19582</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,13 +4498,13 @@
         <v>13554</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>263</v>
+        <v>161</v>
       </c>
       <c r="H5" s="7">
         <v>94</v>
@@ -4495,13 +4513,13 @@
         <v>52102</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M5" s="7">
         <v>117</v>
@@ -4510,13 +4528,13 @@
         <v>65656</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>267</v>
+        <v>111</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,13 +4549,13 @@
         <v>270476</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H6" s="7">
         <v>895</v>
@@ -4546,13 +4564,13 @@
         <v>486651</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M6" s="7">
         <v>1294</v>
@@ -4561,13 +4579,13 @@
         <v>757126</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,13 +4600,13 @@
         <v>287472</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>1018</v>
@@ -4597,13 +4615,13 @@
         <v>554893</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>1446</v>
@@ -4612,18 +4630,18 @@
         <v>842364</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4635,13 +4653,13 @@
         <v>2101</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -4650,13 +4668,13 @@
         <v>1822</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -4665,13 +4683,13 @@
         <v>3923</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>175</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,13 +4704,13 @@
         <v>7536</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="H9" s="7">
         <v>18</v>
@@ -4701,13 +4719,13 @@
         <v>10383</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M9" s="7">
         <v>29</v>
@@ -4716,13 +4734,13 @@
         <v>17919</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>50</v>
+        <v>294</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,13 +4755,13 @@
         <v>284929</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>293</v>
+        <v>87</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H10" s="7">
         <v>507</v>
@@ -4752,13 +4770,13 @@
         <v>374217</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>138</v>
+        <v>300</v>
       </c>
       <c r="M10" s="7">
         <v>919</v>
@@ -4767,13 +4785,13 @@
         <v>659146</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4788,13 +4806,13 @@
         <v>294566</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>529</v>
@@ -4803,13 +4821,13 @@
         <v>386422</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>955</v>
@@ -4818,18 +4836,18 @@
         <v>680988</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4841,13 +4859,13 @@
         <v>159</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>237</v>
+        <v>305</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4859,10 +4877,10 @@
         <v>12</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>179</v>
+        <v>306</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -4871,13 +4889,13 @@
         <v>159</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>302</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4895,10 +4913,10 @@
         <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>182</v>
+        <v>284</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4907,13 +4925,13 @@
         <v>427</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>204</v>
+        <v>308</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>303</v>
+        <v>225</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -4928,7 +4946,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,13 +4961,13 @@
         <v>111827</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H14" s="7">
         <v>151</v>
@@ -4958,13 +4976,13 @@
         <v>77818</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>61</v>
+        <v>312</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>307</v>
+        <v>231</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M14" s="7">
         <v>318</v>
@@ -4973,13 +4991,13 @@
         <v>189645</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,13 +5012,13 @@
         <v>111986</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>152</v>
@@ -5009,13 +5027,13 @@
         <v>78245</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>320</v>
@@ -5024,13 +5042,13 @@
         <v>190231</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,13 +5065,13 @@
         <v>5702</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="H16" s="7">
         <v>33</v>
@@ -5062,13 +5080,13 @@
         <v>17962</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="M16" s="7">
         <v>43</v>
@@ -5077,13 +5095,13 @@
         <v>23664</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>236</v>
+        <v>75</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>316</v>
+        <v>152</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>16</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,13 +5116,13 @@
         <v>21091</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>232</v>
+        <v>322</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>323</v>
       </c>
       <c r="H17" s="7">
         <v>113</v>
@@ -5113,13 +5131,13 @@
         <v>62912</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>318</v>
+        <v>97</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="M17" s="7">
         <v>147</v>
@@ -5128,13 +5146,13 @@
         <v>84003</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>291</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5149,13 +5167,13 @@
         <v>667232</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>323</v>
+        <v>214</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="H18" s="7">
         <v>1553</v>
@@ -5164,13 +5182,13 @@
         <v>938686</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>251</v>
+        <v>332</v>
       </c>
       <c r="M18" s="7">
         <v>2531</v>
@@ -5179,13 +5197,13 @@
         <v>1605918</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5200,13 +5218,13 @@
         <v>694024</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>1699</v>
@@ -5215,13 +5233,13 @@
         <v>1019560</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>2721</v>
@@ -5230,18 +5248,18 @@
         <v>1713584</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5408-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5408-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CA54126-315F-4E8E-9042-492B0A133452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F099E2DF-4F36-412C-A82A-11D76382F808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5CC36D33-0B50-4757-A60E-451F3D297824}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EEAC4D17-64D0-4487-B2C4-1274302BD64C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -815,175 +815,169 @@
     <t>0,43%</t>
   </si>
   <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
   </si>
   <si>
     <t>4,34%</t>
   </si>
   <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
   </si>
   <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
   </si>
   <si>
     <t>99,69%</t>
   </si>
   <si>
-    <t>98,74%</t>
+    <t>98,79%</t>
   </si>
   <si>
     <t>0,82%</t>
@@ -992,61 +986,67 @@
     <t>0,38%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
   </si>
   <si>
     <t>97,24%</t>
   </si>
   <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
   </si>
 </sst>
 </file>
@@ -1458,7 +1458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89754488-8A6F-4048-AB09-E2D8837CB4E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD148F2E-1610-48A9-9151-CE5BEEC08576}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1696,7 +1696,7 @@
         <v>542</v>
       </c>
       <c r="I6" s="7">
-        <v>552397</v>
+        <v>552396</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1747,7 +1747,7 @@
         <v>574</v>
       </c>
       <c r="I7" s="7">
-        <v>587750</v>
+        <v>587749</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>39</v>
@@ -2413,7 +2413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD31AE9-4AA4-4F1B-B0D5-DCA05573F03C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC50296-2489-47C6-8FCE-62BF8D0C6452}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3368,7 +3368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9045856-E323-4580-A44C-B9A71C0B4A2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EDBF5BF-5EAD-4274-96DB-4D7092F4E2A2}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3591,7 +3591,7 @@
         <v>358</v>
       </c>
       <c r="D6" s="7">
-        <v>329495</v>
+        <v>329494</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>191</v>
@@ -3642,7 +3642,7 @@
         <v>386</v>
       </c>
       <c r="D7" s="7">
-        <v>353902</v>
+        <v>353901</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>39</v>
@@ -4323,7 +4323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DAF3D6C-67DE-4BA1-8E5F-62147DB57896}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324584CB-E2AA-4A6E-A26A-870529E41EF2}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4444,10 +4444,10 @@
         <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>3441</v>
+        <v>3194</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>257</v>
@@ -4459,7 +4459,7 @@
         <v>29</v>
       </c>
       <c r="I4" s="7">
-        <v>16140</v>
+        <v>14489</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>259</v>
@@ -4474,7 +4474,7 @@
         <v>35</v>
       </c>
       <c r="N4" s="7">
-        <v>19582</v>
+        <v>17683</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>262</v>
@@ -4495,7 +4495,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="7">
-        <v>13554</v>
+        <v>12665</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>265</v>
@@ -4504,37 +4504,37 @@
         <v>266</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>161</v>
+        <v>267</v>
       </c>
       <c r="H5" s="7">
         <v>94</v>
       </c>
       <c r="I5" s="7">
-        <v>52102</v>
+        <v>46194</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M5" s="7">
         <v>117</v>
       </c>
       <c r="N5" s="7">
-        <v>65656</v>
+        <v>58860</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>111</v>
+        <v>271</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4546,46 +4546,46 @@
         <v>399</v>
       </c>
       <c r="D6" s="7">
-        <v>270476</v>
+        <v>253385</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H6" s="7">
         <v>895</v>
       </c>
       <c r="I6" s="7">
-        <v>486651</v>
+        <v>439471</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M6" s="7">
         <v>1294</v>
       </c>
       <c r="N6" s="7">
-        <v>757126</v>
+        <v>692856</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>280</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,7 +4597,7 @@
         <v>428</v>
       </c>
       <c r="D7" s="7">
-        <v>287472</v>
+        <v>269244</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>39</v>
@@ -4612,7 +4612,7 @@
         <v>1018</v>
       </c>
       <c r="I7" s="7">
-        <v>554893</v>
+        <v>500154</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>39</v>
@@ -4627,7 +4627,7 @@
         <v>1446</v>
       </c>
       <c r="N7" s="7">
-        <v>842364</v>
+        <v>769398</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>39</v>
@@ -4650,43 +4650,43 @@
         <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>2101</v>
+        <v>1977</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>202</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>282</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
       </c>
       <c r="I8" s="7">
-        <v>1822</v>
+        <v>1641</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
       </c>
       <c r="N8" s="7">
-        <v>3923</v>
+        <v>3618</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>286</v>
@@ -4701,7 +4701,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="7">
-        <v>7536</v>
+        <v>6915</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>287</v>
@@ -4716,7 +4716,7 @@
         <v>18</v>
       </c>
       <c r="I9" s="7">
-        <v>10383</v>
+        <v>9213</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>290</v>
@@ -4731,16 +4731,16 @@
         <v>29</v>
       </c>
       <c r="N9" s="7">
-        <v>17919</v>
+        <v>16128</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4752,46 +4752,46 @@
         <v>412</v>
       </c>
       <c r="D10" s="7">
-        <v>284929</v>
+        <v>264366</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>297</v>
+        <v>213</v>
       </c>
       <c r="H10" s="7">
         <v>507</v>
       </c>
       <c r="I10" s="7">
-        <v>374217</v>
+        <v>444885</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M10" s="7">
         <v>919</v>
       </c>
       <c r="N10" s="7">
-        <v>659146</v>
+        <v>709251</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4803,7 +4803,7 @@
         <v>426</v>
       </c>
       <c r="D11" s="7">
-        <v>294566</v>
+        <v>273257</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>39</v>
@@ -4818,7 +4818,7 @@
         <v>529</v>
       </c>
       <c r="I11" s="7">
-        <v>386422</v>
+        <v>455739</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>39</v>
@@ -4833,7 +4833,7 @@
         <v>955</v>
       </c>
       <c r="N11" s="7">
-        <v>680988</v>
+        <v>728996</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>39</v>
@@ -4856,16 +4856,16 @@
         <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>305</v>
+        <v>47</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4880,22 +4880,22 @@
         <v>41</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>257</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4916,28 +4916,28 @@
         <v>41</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>427</v>
+        <v>381</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>308</v>
+        <v>207</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>225</v>
+        <v>307</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>427</v>
+        <v>381</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>18</v>
@@ -4946,7 +4946,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4958,13 +4958,13 @@
         <v>167</v>
       </c>
       <c r="D14" s="7">
-        <v>111827</v>
+        <v>104828</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>311</v>
+        <v>53</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>55</v>
@@ -4973,13 +4973,13 @@
         <v>151</v>
       </c>
       <c r="I14" s="7">
-        <v>77818</v>
+        <v>70944</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>312</v>
+        <v>215</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>231</v>
+        <v>310</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>55</v>
@@ -4988,13 +4988,13 @@
         <v>318</v>
       </c>
       <c r="N14" s="7">
-        <v>189645</v>
+        <v>175772</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>55</v>
@@ -5009,7 +5009,7 @@
         <v>168</v>
       </c>
       <c r="D15" s="7">
-        <v>111986</v>
+        <v>104986</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>39</v>
@@ -5024,7 +5024,7 @@
         <v>152</v>
       </c>
       <c r="I15" s="7">
-        <v>78245</v>
+        <v>71325</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>39</v>
@@ -5039,7 +5039,7 @@
         <v>320</v>
       </c>
       <c r="N15" s="7">
-        <v>190231</v>
+        <v>176311</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>39</v>
@@ -5062,46 +5062,46 @@
         <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>5702</v>
+        <v>5329</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="H16" s="7">
         <v>33</v>
       </c>
       <c r="I16" s="7">
-        <v>17962</v>
+        <v>16130</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>320</v>
+        <v>239</v>
       </c>
       <c r="M16" s="7">
         <v>43</v>
       </c>
       <c r="N16" s="7">
-        <v>23664</v>
+        <v>21459</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>75</v>
+        <v>318</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,46 +5113,46 @@
         <v>34</v>
       </c>
       <c r="D17" s="7">
-        <v>21091</v>
+        <v>19580</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>64</v>
+        <v>321</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>322</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>323</v>
+        <v>166</v>
       </c>
       <c r="H17" s="7">
         <v>113</v>
       </c>
       <c r="I17" s="7">
-        <v>62912</v>
+        <v>55788</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="M17" s="7">
         <v>147</v>
       </c>
       <c r="N17" s="7">
-        <v>84003</v>
+        <v>75368</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5164,13 +5164,13 @@
         <v>978</v>
       </c>
       <c r="D18" s="7">
-        <v>667232</v>
+        <v>622578</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>329</v>
@@ -5179,7 +5179,7 @@
         <v>1553</v>
       </c>
       <c r="I18" s="7">
-        <v>938686</v>
+        <v>955300</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>330</v>
@@ -5194,7 +5194,7 @@
         <v>2531</v>
       </c>
       <c r="N18" s="7">
-        <v>1605918</v>
+        <v>1577877</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>333</v>
@@ -5215,7 +5215,7 @@
         <v>1022</v>
       </c>
       <c r="D19" s="7">
-        <v>694024</v>
+        <v>647487</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>39</v>
@@ -5230,7 +5230,7 @@
         <v>1699</v>
       </c>
       <c r="I19" s="7">
-        <v>1019560</v>
+        <v>1027218</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>39</v>
@@ -5245,7 +5245,7 @@
         <v>2721</v>
       </c>
       <c r="N19" s="7">
-        <v>1713584</v>
+        <v>1674704</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>39</v>
